--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Domaine</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>Démontage d'un PC et étude de ses composants</t>
+  </si>
+  <si>
+    <t>python_bases</t>
+  </si>
+  <si>
+    <t>PYB-000</t>
+  </si>
+  <si>
+    <t>Types simples</t>
   </si>
 </sst>
 </file>
@@ -371,14 +380,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
@@ -419,6 +429,17 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Domaine</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Types simples</t>
+  </si>
+  <si>
+    <t>PYB-100</t>
+  </si>
+  <si>
+    <t>Types composés</t>
   </si>
 </sst>
 </file>
@@ -380,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,6 +446,17 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
   <si>
     <t>Domaine</t>
   </si>
@@ -72,6 +72,102 @@
   </si>
   <si>
     <t>Types composés</t>
+  </si>
+  <si>
+    <t>PYB-101</t>
+  </si>
+  <si>
+    <t>PYB-102</t>
+  </si>
+  <si>
+    <t>PYB-103</t>
+  </si>
+  <si>
+    <t>PYB-104</t>
+  </si>
+  <si>
+    <t>PYB-106</t>
+  </si>
+  <si>
+    <t>PYB-105</t>
+  </si>
+  <si>
+    <t>PYB-107</t>
+  </si>
+  <si>
+    <t>PYB-108</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>PYB-003</t>
+  </si>
+  <si>
+    <t>PYB-002</t>
+  </si>
+  <si>
+    <t>PYB-200</t>
+  </si>
+  <si>
+    <t>PYB-201</t>
+  </si>
+  <si>
+    <t>PYB-202</t>
+  </si>
+  <si>
+    <t>PYB-203</t>
+  </si>
+  <si>
+    <t>PYB-204</t>
+  </si>
+  <si>
+    <t>PYB-205</t>
+  </si>
+  <si>
+    <t>PYB-206</t>
+  </si>
+  <si>
+    <t>PYB-207</t>
+  </si>
+  <si>
+    <t>PYB-208</t>
+  </si>
+  <si>
+    <t>PYB-209</t>
+  </si>
+  <si>
+    <t>PYB-004</t>
+  </si>
+  <si>
+    <t>Fonctions</t>
+  </si>
+  <si>
+    <t>PYB-300</t>
+  </si>
+  <si>
+    <t>PYB-301</t>
+  </si>
+  <si>
+    <t>PYB-302</t>
+  </si>
+  <si>
+    <t>PYB-303</t>
+  </si>
+  <si>
+    <t>PYB-304</t>
+  </si>
+  <si>
+    <t>PYB-305</t>
+  </si>
+  <si>
+    <t>PYB-306</t>
+  </si>
+  <si>
+    <t>PYB-307</t>
+  </si>
+  <si>
+    <t>Combinaison des exos</t>
   </si>
 </sst>
 </file>
@@ -386,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,13 +539,16 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -457,6 +556,331 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="24560" windowHeight="13440" tabRatio="500"/>
+    <workbookView xWindow="-29760" yWindow="120" windowWidth="24560" windowHeight="13440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
   <si>
     <t>Domaine</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>Combinaison des exos</t>
+  </si>
+  <si>
+    <t>ARCHI-001</t>
+  </si>
+  <si>
+    <t>ARCHI-002</t>
+  </si>
+  <si>
+    <t>Systèmes d'exploitations ; terminaux</t>
+  </si>
+  <si>
+    <t>Environnement de développement intégré Python</t>
   </si>
 </sst>
 </file>
@@ -482,17 +494,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
@@ -531,27 +543,24 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -559,10 +568,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -570,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -581,7 +593,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -592,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -603,7 +615,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -614,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -625,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -636,7 +648,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -647,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -658,13 +670,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -672,10 +681,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -683,186 +692,189 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
         <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
@@ -873,7 +885,7 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
@@ -881,6 +893,28 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
   <si>
     <t>Domaine</t>
   </si>
@@ -179,7 +179,16 @@
     <t>Systèmes d'exploitations ; terminaux</t>
   </si>
   <si>
-    <t>Environnement de développement intégré Python</t>
+    <t>consignes</t>
+  </si>
+  <si>
+    <t>Consignes</t>
+  </si>
+  <si>
+    <t>Environnement de développement intégré Python et prise en main élémentaire de Python</t>
+  </si>
+  <si>
+    <t>PYB-002-bis</t>
   </si>
 </sst>
 </file>
@@ -494,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -546,10 +555,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -557,24 +566,21 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -582,10 +588,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -593,10 +602,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -604,10 +616,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -615,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -626,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -637,7 +652,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -648,7 +663,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -659,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -670,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -681,7 +696,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -692,13 +707,10 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -706,10 +718,10 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -717,10 +729,13 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -728,7 +743,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -739,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -750,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -761,7 +776,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -772,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -783,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -794,7 +809,7 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -805,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -816,13 +831,10 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -830,10 +842,10 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -841,18 +853,21 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -863,7 +878,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -874,7 +889,7 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
@@ -885,7 +900,7 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
@@ -896,7 +911,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -907,7 +922,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -915,6 +930,28 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
   <si>
     <t>Domaine</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>PYB-002-bis</t>
+  </si>
+  <si>
+    <t>PYB-003-bis</t>
   </si>
 </sst>
 </file>
@@ -503,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,10 +746,13 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -754,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -765,7 +771,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -776,7 +782,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -787,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -798,7 +804,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -809,7 +815,7 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -820,7 +826,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -831,7 +837,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -842,7 +848,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -853,13 +859,10 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -867,18 +870,21 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
       </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -889,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
@@ -900,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
@@ -911,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -922,7 +928,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -933,7 +939,7 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -944,7 +950,7 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -952,6 +958,17 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
   <si>
     <t>Domaine</t>
   </si>
@@ -192,6 +192,24 @@
   </si>
   <si>
     <t>PYB-003-bis</t>
+  </si>
+  <si>
+    <t>PYB-518</t>
+  </si>
+  <si>
+    <t>Structures de boucles</t>
+  </si>
+  <si>
+    <t>PYB-510</t>
+  </si>
+  <si>
+    <t>PYB-408</t>
+  </si>
+  <si>
+    <t>Instructions conditionnelles</t>
+  </si>
+  <si>
+    <t>Boucles "while"</t>
   </si>
 </sst>
 </file>
@@ -506,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -969,6 +987,39 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-29760" yWindow="120" windowWidth="24560" windowHeight="13440" tabRatio="500"/>
+    <workbookView xWindow="31160" yWindow="1600" windowWidth="24560" windowHeight="13440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31160" yWindow="1600" windowWidth="24560" windowHeight="13440" tabRatio="500"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="24560" windowHeight="13440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="24560" windowHeight="13440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
   <si>
     <t>Domaine</t>
   </si>
@@ -210,6 +210,48 @@
   </si>
   <si>
     <t>Boucles "while"</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>PLT-002</t>
+  </si>
+  <si>
+    <t>Tracé de courbes</t>
+  </si>
+  <si>
+    <t>PLT-003</t>
+  </si>
+  <si>
+    <t>Exemple avancé</t>
+  </si>
+  <si>
+    <t>PYB-308</t>
+  </si>
+  <si>
+    <t>Fonctions en Python</t>
+  </si>
+  <si>
+    <t>301+305</t>
+  </si>
+  <si>
+    <t>400,401,404</t>
+  </si>
+  <si>
+    <t>PYB-411</t>
+  </si>
+  <si>
+    <t>Boucles IF, FOR, WHILE</t>
+  </si>
+  <si>
+    <t>Algorithme glouton -- Problème du rendu de monnaie</t>
+  </si>
+  <si>
+    <t>ALGO-012</t>
+  </si>
+  <si>
+    <t>algo</t>
   </si>
 </sst>
 </file>
@@ -524,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -919,7 +961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -930,7 +972,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -941,7 +983,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -952,7 +994,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -963,7 +1005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -974,7 +1016,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -985,41 +1027,102 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>10</v>
       </c>
       <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
         <v>55</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
         <v>57</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
         <v>58</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="76">
   <si>
     <t>Domaine</t>
   </si>
@@ -248,10 +248,13 @@
     <t>Algorithme glouton -- Problème du rendu de monnaie</t>
   </si>
   <si>
-    <t>ALGO-012</t>
-  </si>
-  <si>
     <t>algo</t>
+  </si>
+  <si>
+    <t>consignes_TP3</t>
+  </si>
+  <si>
+    <t>ALG-012</t>
   </si>
 </sst>
 </file>
@@ -566,17 +569,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
@@ -615,13 +618,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -629,10 +632,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -640,24 +643,21 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -665,10 +665,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
@@ -679,7 +679,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -693,18 +693,21 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -715,7 +718,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -726,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -737,7 +740,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -748,7 +751,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -759,7 +762,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -770,7 +773,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -781,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -792,13 +795,10 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -806,7 +806,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -820,18 +820,21 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
       </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -842,7 +845,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -853,7 +856,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -864,7 +867,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -875,7 +878,7 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -886,7 +889,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -897,7 +900,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -908,7 +911,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -919,7 +922,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -930,13 +933,10 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -944,18 +944,21 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
       </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
@@ -966,7 +969,7 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
@@ -977,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -988,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -999,7 +1002,7 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -1010,7 +1013,7 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -1021,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -1032,13 +1035,10 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1046,10 +1046,13 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+      <c r="E40" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1057,10 +1060,10 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1068,10 +1071,10 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1079,24 +1082,24 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>71</v>
+      </c>
+      <c r="E44" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1104,25 +1107,36 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="79">
   <si>
     <t>Domaine</t>
   </si>
@@ -255,6 +255,15 @@
   </si>
   <si>
     <t>ALG-012</t>
+  </si>
+  <si>
+    <t>PYB-409</t>
+  </si>
+  <si>
+    <t>PYB-500</t>
+  </si>
+  <si>
+    <t>Fonctions plus avancées</t>
   </si>
 </sst>
 </file>
@@ -569,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1060,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
@@ -1071,10 +1080,10 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1082,10 +1091,10 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1093,50 +1102,72 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+      <c r="E46" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="87">
   <si>
     <t>Domaine</t>
   </si>
@@ -264,6 +264,30 @@
   </si>
   <si>
     <t>Fonctions plus avancées</t>
+  </si>
+  <si>
+    <t>consignes_TP4</t>
+  </si>
+  <si>
+    <t>PYB-501</t>
+  </si>
+  <si>
+    <t>Bataille navale</t>
+  </si>
+  <si>
+    <t>PYB-523</t>
+  </si>
+  <si>
+    <t>Simulation d'un prêt immobilier</t>
+  </si>
+  <si>
+    <t>PYB-506</t>
+  </si>
+  <si>
+    <t>Suites</t>
+  </si>
+  <si>
+    <t>Sommes</t>
   </si>
 </sst>
 </file>
@@ -578,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,13 +662,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -652,10 +676,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -663,24 +687,21 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -688,10 +709,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>46</v>
@@ -702,7 +723,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -716,18 +737,21 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -738,7 +762,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -749,7 +773,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -760,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -771,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -782,7 +806,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -793,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -804,7 +828,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -815,13 +839,10 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -829,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -843,18 +864,21 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -865,7 +889,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -876,7 +900,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -887,7 +911,7 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -898,7 +922,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -909,7 +933,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -920,7 +944,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -931,7 +955,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -942,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -953,13 +977,10 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -967,18 +988,21 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
       </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
@@ -989,7 +1013,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -1000,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -1011,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -1022,7 +1046,7 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -1033,7 +1057,7 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -1044,7 +1068,7 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
@@ -1055,13 +1079,10 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1069,10 +1090,13 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+      <c r="E41" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1080,10 +1104,10 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1091,10 +1115,10 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1102,10 +1126,10 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1113,10 +1137,10 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1124,50 +1148,108 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49">
+        <v>502.50299999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>61</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
         <v>64</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C53" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>73</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B54" t="s">
         <v>75</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C54" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="88">
   <si>
     <t>Domaine</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>Sommes</t>
+  </si>
+  <si>
+    <t>PYB-507</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1148,7 +1151,7 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
         <v>86</v>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="102">
   <si>
     <t>Domaine</t>
   </si>
@@ -291,6 +291,48 @@
   </si>
   <si>
     <t>PYB-507</t>
+  </si>
+  <si>
+    <t>ALG-013</t>
+  </si>
+  <si>
+    <t>Fonction mystère</t>
+  </si>
+  <si>
+    <t>ALG-014</t>
+  </si>
+  <si>
+    <t>Evolution des variables</t>
+  </si>
+  <si>
+    <t>ALG-015</t>
+  </si>
+  <si>
+    <t>Manipulation de listes</t>
+  </si>
+  <si>
+    <t>ALG-016</t>
+  </si>
+  <si>
+    <t>Maximum de listes</t>
+  </si>
+  <si>
+    <t>Architecture matérielle et logicielle</t>
+  </si>
+  <si>
+    <t>ARCHI-004</t>
+  </si>
+  <si>
+    <t>tableaux</t>
+  </si>
+  <si>
+    <t>TAB-024</t>
+  </si>
+  <si>
+    <t>TAB-025</t>
+  </si>
+  <si>
+    <t>Occurrences</t>
   </si>
 </sst>
 </file>
@@ -605,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,16 +751,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -726,10 +765,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
@@ -740,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -754,18 +793,21 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -776,7 +818,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -787,7 +829,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -798,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -809,7 +851,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -820,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -831,7 +873,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -842,7 +884,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -853,13 +895,10 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -867,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -881,18 +920,21 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -903,7 +945,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -914,7 +956,7 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -925,7 +967,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -936,7 +978,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -947,7 +989,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -958,7 +1000,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -969,7 +1011,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -980,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -991,13 +1033,10 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1005,18 +1044,21 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
       </c>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -1027,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -1038,7 +1080,7 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -1049,7 +1091,7 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -1060,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -1071,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
@@ -1082,7 +1124,7 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
         <v>37</v>
@@ -1093,13 +1135,10 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1107,10 +1146,13 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+      <c r="E42" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1118,10 +1160,10 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1129,10 +1171,10 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1140,10 +1182,10 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1151,10 +1193,10 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1162,10 +1204,10 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1173,10 +1215,10 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1184,13 +1226,10 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
-      </c>
-      <c r="E49">
-        <v>502.50299999999999</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1198,10 +1237,13 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>83</v>
+      </c>
+      <c r="E50">
+        <v>502.50299999999999</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1209,24 +1251,24 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>71</v>
+      </c>
+      <c r="E52" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1234,25 +1276,102 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1580" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="107">
   <si>
     <t>Domaine</t>
   </si>
@@ -333,6 +333,21 @@
   </si>
   <si>
     <t>Occurrences</t>
+  </si>
+  <si>
+    <t>PLT-004</t>
+  </si>
+  <si>
+    <t>Tracé de fonctions simples</t>
+  </si>
+  <si>
+    <t>consignes_TP5</t>
+  </si>
+  <si>
+    <t>PLT-005</t>
+  </si>
+  <si>
+    <t>Synthèse de Fourier</t>
   </si>
 </sst>
 </file>
@@ -647,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,13 +733,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -732,10 +747,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -743,10 +758,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -754,24 +769,21 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -779,10 +791,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
@@ -793,7 +805,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -807,18 +819,21 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -829,7 +844,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -840,7 +855,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -851,7 +866,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -862,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -873,7 +888,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -884,7 +899,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -895,7 +910,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -906,13 +921,10 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -920,7 +932,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -934,18 +946,21 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
       </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -956,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -967,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -978,7 +993,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -989,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -1000,7 +1015,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -1011,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -1022,7 +1037,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -1033,7 +1048,7 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
@@ -1044,13 +1059,10 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1058,18 +1070,21 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
       </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -1080,7 +1095,7 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -1091,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -1102,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -1113,7 +1128,7 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
@@ -1124,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
         <v>37</v>
@@ -1135,7 +1150,7 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -1146,13 +1161,10 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1160,10 +1172,13 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+      <c r="E43" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1171,10 +1186,10 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1182,10 +1197,10 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1193,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1204,10 +1219,10 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1215,10 +1230,10 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1226,10 +1241,10 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1237,13 +1252,10 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
-      </c>
-      <c r="E50">
-        <v>502.50299999999999</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1251,10 +1263,13 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>83</v>
+      </c>
+      <c r="E51">
+        <v>502.50299999999999</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1262,24 +1277,24 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>71</v>
+      </c>
+      <c r="E53" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1287,43 +1302,43 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1331,10 +1346,10 @@
         <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1342,36 +1357,69 @@
         <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1580" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="114">
   <si>
     <t>Domaine</t>
   </si>
@@ -348,6 +348,27 @@
   </si>
   <si>
     <t>Synthèse de Fourier</t>
+  </si>
+  <si>
+    <t>chaines</t>
+  </si>
+  <si>
+    <t>STR-003</t>
+  </si>
+  <si>
+    <t>Recherche de mots</t>
+  </si>
+  <si>
+    <t>STR-002</t>
+  </si>
+  <si>
+    <t>Nombre d'occurrences</t>
+  </si>
+  <si>
+    <t>mission_insight</t>
+  </si>
+  <si>
+    <t>Algorithme de détection</t>
   </si>
 </sst>
 </file>
@@ -662,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1398,13 +1419,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1412,14 +1433,47 @@
         <v>98</v>
       </c>
       <c r="B64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" t="s">
         <v>100</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -686,7 +686,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="116">
   <si>
     <t>Domaine</t>
   </si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>Algorithme de détection</t>
+  </si>
+  <si>
+    <t>Tableaux</t>
+  </si>
+  <si>
+    <t>TAB-026</t>
   </si>
 </sst>
 </file>
@@ -683,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1474,6 +1480,17 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="128">
   <si>
     <t>Domaine</t>
   </si>
@@ -375,6 +375,42 @@
   </si>
   <si>
     <t>TAB-026</t>
+  </si>
+  <si>
+    <t>fichiers</t>
+  </si>
+  <si>
+    <t>FIC-007</t>
+  </si>
+  <si>
+    <t>Classement de la "Saintélyon"</t>
+  </si>
+  <si>
+    <t>FIC-010</t>
+  </si>
+  <si>
+    <t>Traitement de données physiologiques</t>
+  </si>
+  <si>
+    <t>FIC-009</t>
+  </si>
+  <si>
+    <t>Analyse d'un dipôle électrique</t>
+  </si>
+  <si>
+    <t>FIC-011</t>
+  </si>
+  <si>
+    <t>Lecture d'un texte</t>
+  </si>
+  <si>
+    <t>consignes_TP6</t>
+  </si>
+  <si>
+    <t>FIC-012</t>
+  </si>
+  <si>
+    <t>Résultats de l'Embrunman</t>
   </si>
 </sst>
 </file>
@@ -689,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -771,13 +807,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -785,10 +821,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -796,10 +832,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -807,24 +843,21 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -832,10 +865,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>46</v>
@@ -846,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -860,18 +893,21 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -882,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -893,7 +929,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -904,7 +940,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -915,7 +951,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -926,7 +962,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -937,7 +973,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -948,7 +984,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -959,13 +995,10 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -973,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -987,18 +1020,21 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
       </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -1009,7 +1045,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -1020,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -1031,7 +1067,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -1042,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -1053,7 +1089,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -1064,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -1075,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
@@ -1086,7 +1122,7 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
@@ -1097,13 +1133,10 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1111,18 +1144,21 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
       </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -1133,7 +1169,7 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -1144,7 +1180,7 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -1155,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
@@ -1166,7 +1202,7 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
         <v>37</v>
@@ -1177,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -1188,7 +1224,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
         <v>37</v>
@@ -1199,13 +1235,10 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1213,10 +1246,13 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+      <c r="E44" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1224,10 +1260,10 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1235,10 +1271,10 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1246,10 +1282,10 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1257,10 +1293,10 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1268,10 +1304,10 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1279,10 +1315,10 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1290,13 +1326,10 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51">
-        <v>502.50299999999999</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1304,10 +1337,13 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>83</v>
+      </c>
+      <c r="E52">
+        <v>502.50299999999999</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1315,24 +1351,24 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>71</v>
+      </c>
+      <c r="E54" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1340,10 +1376,10 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1351,10 +1387,10 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1362,21 +1398,21 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1384,10 +1420,10 @@
         <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1395,10 +1431,10 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1406,10 +1442,10 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1417,10 +1453,10 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1428,21 +1464,21 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1450,21 +1486,21 @@
         <v>98</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1472,25 +1508,91 @@
         <v>107</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C68" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -401,9 +401,6 @@
     <t>FIC-011</t>
   </si>
   <si>
-    <t>Lecture d'un texte</t>
-  </si>
-  <si>
     <t>consignes_TP6</t>
   </si>
   <si>
@@ -411,6 +408,9 @@
   </si>
   <si>
     <t>Résultats de l'Embrunman</t>
+  </si>
+  <si>
+    <t>Lecture et analyses des caractères d'un texte</t>
   </si>
 </sst>
 </file>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -810,7 +810,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
         <v>51</v>
@@ -1577,7 +1577,7 @@
         <v>123</v>
       </c>
       <c r="C73" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1585,10 +1585,10 @@
         <v>116</v>
       </c>
       <c r="B74" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" t="s">
         <v>126</v>
-      </c>
-      <c r="C74" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="1200" yWindow="5340" windowWidth="14400" windowHeight="9660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="136">
   <si>
     <t>Domaine</t>
   </si>
@@ -411,16 +411,56 @@
   </si>
   <si>
     <t>Lecture et analyses des caractères d'un texte</t>
+  </si>
+  <si>
+    <t>percolation</t>
+  </si>
+  <si>
+    <t>Modélisation de la percolation</t>
+  </si>
+  <si>
+    <t>STR-001</t>
+  </si>
+  <si>
+    <t>palindrome</t>
+  </si>
+  <si>
+    <t>decryptage</t>
+  </si>
+  <si>
+    <t>Décryptage de texte</t>
+  </si>
+  <si>
+    <t>carre_magique</t>
+  </si>
+  <si>
+    <t>Les carrés magiques</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -443,13 +483,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -725,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1505,79 +1549,79 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C69" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C73" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1585,14 +1629,58 @@
         <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="5340" windowWidth="14400" windowHeight="9660" tabRatio="500"/>
+    <workbookView xWindow="5340" yWindow="460" windowWidth="16860" windowHeight="12280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="137">
   <si>
     <t>Domaine</t>
   </si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t>Les carrés magiques</t>
+  </si>
+  <si>
+    <t>Clément Roux -UPSTI</t>
   </si>
 </sst>
 </file>
@@ -771,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1525,7 +1528,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -1536,7 +1539,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>98</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>98</v>
       </c>
@@ -1557,8 +1560,11 @@
       <c r="C67" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>98</v>
       </c>
@@ -1568,8 +1574,11 @@
       <c r="C68" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>107</v>
       </c>
@@ -1580,7 +1589,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>107</v>
       </c>
@@ -1591,7 +1600,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>107</v>
       </c>
@@ -1602,7 +1611,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -1613,7 +1622,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>98</v>
       </c>
@@ -1624,7 +1633,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>116</v>
       </c>
@@ -1635,7 +1644,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>116</v>
       </c>
@@ -1646,7 +1655,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>116</v>
       </c>
@@ -1657,7 +1666,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>116</v>
       </c>
@@ -1668,7 +1677,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>116</v>
       </c>
@@ -1679,7 +1688,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>8</v>
       </c>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="142">
   <si>
     <t>Domaine</t>
   </si>
@@ -438,6 +438,21 @@
   </si>
   <si>
     <t>Clément Roux -UPSTI</t>
+  </si>
+  <si>
+    <t>nombres</t>
+  </si>
+  <si>
+    <t>NBR-003</t>
+  </si>
+  <si>
+    <t>Dochotomie</t>
+  </si>
+  <si>
+    <t>NBR-004</t>
+  </si>
+  <si>
+    <t>Nombre déficient</t>
   </si>
 </sst>
 </file>
@@ -772,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1690,6 +1705,28 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>137</v>
+      </c>
+      <c r="B80" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="150">
   <si>
     <t>Domaine</t>
   </si>
@@ -453,6 +453,30 @@
   </si>
   <si>
     <t>Nombre déficient</t>
+  </si>
+  <si>
+    <t>ALG-017</t>
+  </si>
+  <si>
+    <t>Test de primalité</t>
+  </si>
+  <si>
+    <t>ALG-018</t>
+  </si>
+  <si>
+    <t>Conjecture de Syracuse</t>
+  </si>
+  <si>
+    <t>ALG-019</t>
+  </si>
+  <si>
+    <t>Conversion d'entier en binaire</t>
+  </si>
+  <si>
+    <t>Recherche d'invariant</t>
+  </si>
+  <si>
+    <t>PYB-517</t>
   </si>
 </sst>
 </file>
@@ -787,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1377,10 +1401,10 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1388,10 +1412,10 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1399,13 +1423,10 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
-      </c>
-      <c r="E52">
-        <v>502.50299999999999</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1413,10 +1434,13 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>83</v>
+      </c>
+      <c r="E53">
+        <v>502.50299999999999</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1424,24 +1448,24 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
-      </c>
-      <c r="E54" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>71</v>
+      </c>
+      <c r="E55" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1449,10 +1473,10 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1460,10 +1484,10 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1471,21 +1495,21 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1493,10 +1517,10 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1504,10 +1528,10 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1515,10 +1539,10 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1526,10 +1550,10 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1537,93 +1561,93 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D67" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
-      </c>
-      <c r="D68" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>133</v>
+      </c>
+      <c r="D71" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1631,65 +1655,68 @@
         <v>98</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>135</v>
+      </c>
+      <c r="D72" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B73" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C73" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B74" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C74" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C75" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C76" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C77" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1697,36 +1724,80 @@
         <v>116</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C79" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>137</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B83" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" t="s">
         <v>140</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C84" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="152">
   <si>
     <t>Domaine</t>
   </si>
@@ -477,6 +477,12 @@
   </si>
   <si>
     <t>PYB-517</t>
+  </si>
+  <si>
+    <t>TAB-027</t>
+  </si>
+  <si>
+    <t>Traitement d'images</t>
   </si>
 </sst>
 </file>
@@ -811,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1641,13 +1647,10 @@
         <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C71" t="s">
-        <v>133</v>
-      </c>
-      <c r="D71" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1655,10 +1658,10 @@
         <v>98</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D72" t="s">
         <v>136</v>
@@ -1666,13 +1669,16 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="D73" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1680,10 +1686,10 @@
         <v>107</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C74" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1691,21 +1697,21 @@
         <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C75" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1713,21 +1719,21 @@
         <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C77" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C78" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1735,10 +1741,10 @@
         <v>116</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1746,10 +1752,10 @@
         <v>116</v>
       </c>
       <c r="B80" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C80" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -1757,10 +1763,10 @@
         <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C81" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1768,21 +1774,21 @@
         <v>116</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C82" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C83" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1790,14 +1796,25 @@
         <v>137</v>
       </c>
       <c r="B84" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C84" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="158">
   <si>
     <t>Domaine</t>
   </si>
@@ -483,6 +483,24 @@
   </si>
   <si>
     <t>Traitement d'images</t>
+  </si>
+  <si>
+    <t>ALG-020</t>
+  </si>
+  <si>
+    <t>Invariant pour les calculs de moyennes et de variances</t>
+  </si>
+  <si>
+    <t>ALG-021</t>
+  </si>
+  <si>
+    <t>Invariant pour les recherches de maximum de tableaux</t>
+  </si>
+  <si>
+    <t>ALG-022</t>
+  </si>
+  <si>
+    <t>Invariant pour les recherches d'occurrences dans un tableau</t>
   </si>
 </sst>
 </file>
@@ -817,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1614,43 +1632,52 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="C68" t="s">
-        <v>113</v>
+        <v>153</v>
+      </c>
+      <c r="D68" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="C69" t="s">
-        <v>95</v>
+        <v>155</v>
+      </c>
+      <c r="D69" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>157</v>
+      </c>
+      <c r="D70" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1658,13 +1685,10 @@
         <v>98</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
-      </c>
-      <c r="D72" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1672,101 +1696,104 @@
         <v>98</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C73" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C75" t="s">
-        <v>109</v>
+        <v>133</v>
+      </c>
+      <c r="D75" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C76" t="s">
-        <v>111</v>
+        <v>135</v>
+      </c>
+      <c r="D76" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C77" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C79" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C80" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C81" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1774,10 +1801,10 @@
         <v>116</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -1785,36 +1812,69 @@
         <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B84" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B85" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C85" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>137</v>
+      </c>
+      <c r="B87" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>137</v>
+      </c>
+      <c r="B88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="166">
   <si>
     <t>Domaine</t>
   </si>
@@ -501,6 +501,30 @@
   </si>
   <si>
     <t>Invariant pour les recherches d'occurrences dans un tableau</t>
+  </si>
+  <si>
+    <t>complexite</t>
+  </si>
+  <si>
+    <t>COM-008</t>
+  </si>
+  <si>
+    <t>COM-009</t>
+  </si>
+  <si>
+    <t>Recherche de maximum d'un tableau</t>
+  </si>
+  <si>
+    <t>Appartenance d'un élément dans un tableau</t>
+  </si>
+  <si>
+    <t>COM-010</t>
+  </si>
+  <si>
+    <t>Recherche d'un mot dans une chaine</t>
+  </si>
+  <si>
+    <t>COM-011</t>
   </si>
 </sst>
 </file>
@@ -835,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1682,49 +1706,46 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="B73" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="C73" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="B75" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="C75" t="s">
-        <v>133</v>
-      </c>
-      <c r="D75" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -1732,46 +1753,46 @@
         <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C76" t="s">
-        <v>135</v>
-      </c>
-      <c r="D76" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C79" t="s">
-        <v>111</v>
+        <v>133</v>
+      </c>
+      <c r="D79" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1779,65 +1800,68 @@
         <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C80" t="s">
-        <v>114</v>
+        <v>135</v>
+      </c>
+      <c r="D80" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B81" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C81" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C82" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B83" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C83" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C84" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C85" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -1845,36 +1869,80 @@
         <v>116</v>
       </c>
       <c r="B86" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C86" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C87" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B88" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C88" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="169">
   <si>
     <t>Domaine</t>
   </si>
@@ -525,6 +525,15 @@
   </si>
   <si>
     <t>COM-011</t>
+  </si>
+  <si>
+    <t>bode</t>
+  </si>
+  <si>
+    <t>Analyse harmonique</t>
+  </si>
+  <si>
+    <t>A. Troesch, J.-P. Becirspahic</t>
   </si>
 </sst>
 </file>
@@ -859,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1706,13 +1715,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C72" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1720,10 +1729,10 @@
         <v>158</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1731,10 +1740,10 @@
         <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1742,21 +1751,21 @@
         <v>158</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1764,10 +1773,10 @@
         <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1775,10 +1784,10 @@
         <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1786,13 +1795,10 @@
         <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C79" t="s">
-        <v>133</v>
-      </c>
-      <c r="D79" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1800,149 +1806,166 @@
         <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C80" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D80" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C81" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="D81" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>107</v>
       </c>
       <c r="B82" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>107</v>
       </c>
       <c r="B83" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" t="s">
         <v>108</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>98</v>
-      </c>
-      <c r="B84" t="s">
-        <v>115</v>
-      </c>
-      <c r="C84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>98</v>
       </c>
       <c r="B85" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" t="s">
         <v>128</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>116</v>
-      </c>
-      <c r="B86" t="s">
-        <v>117</v>
-      </c>
-      <c r="C86" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>116</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>116</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C88" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>116</v>
       </c>
       <c r="B89" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C89" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>116</v>
       </c>
       <c r="B90" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" t="s">
         <v>125</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>137</v>
-      </c>
-      <c r="B91" t="s">
-        <v>138</v>
-      </c>
-      <c r="C91" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>137</v>
       </c>
       <c r="B92" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>137</v>
+      </c>
+      <c r="B93" t="s">
         <v>140</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="172">
   <si>
     <t>Domaine</t>
   </si>
@@ -534,6 +534,15 @@
   </si>
   <si>
     <t>A. Troesch, J.-P. Becirspahic</t>
+  </si>
+  <si>
+    <t>integration_numerique</t>
+  </si>
+  <si>
+    <t>Fonctions polynomiales</t>
+  </si>
+  <si>
+    <t>INT-001</t>
   </si>
 </sst>
 </file>
@@ -868,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1966,6 +1975,17 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>169</v>
+      </c>
+      <c r="B94" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="176">
   <si>
     <t>Domaine</t>
   </si>
@@ -543,6 +543,18 @@
   </si>
   <si>
     <t>INT-001</t>
+  </si>
+  <si>
+    <t>INT-002</t>
+  </si>
+  <si>
+    <t>Fractions rationnelles</t>
+  </si>
+  <si>
+    <t>Mise hors gel des canalisations d'eau</t>
+  </si>
+  <si>
+    <t>INT-003</t>
   </si>
 </sst>
 </file>
@@ -877,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1986,6 +1998,28 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" t="s">
+        <v>172</v>
+      </c>
+      <c r="C95" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>169</v>
+      </c>
+      <c r="B96" t="s">
+        <v>175</v>
+      </c>
+      <c r="C96" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="460" windowWidth="16860" windowHeight="12280" tabRatio="500"/>
+    <workbookView xWindow="-31240" yWindow="-160" windowWidth="16860" windowHeight="12280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="183">
   <si>
     <t>Domaine</t>
   </si>
@@ -555,6 +555,27 @@
   </si>
   <si>
     <t>INT-003</t>
+  </si>
+  <si>
+    <t>equadiffs</t>
+  </si>
+  <si>
+    <t>EQD-004</t>
+  </si>
+  <si>
+    <t>Equation différentielles d'ordre 1</t>
+  </si>
+  <si>
+    <t>EQD-005</t>
+  </si>
+  <si>
+    <t>Equation différentielles d'ordre 2</t>
+  </si>
+  <si>
+    <t>EQD-006</t>
+  </si>
+  <si>
+    <t>Cinétique chimique</t>
   </si>
 </sst>
 </file>
@@ -889,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2018,8 +2039,41 @@
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" t="s">
+        <v>177</v>
+      </c>
+      <c r="C97" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" t="s">
+        <v>179</v>
+      </c>
+      <c r="C98" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31240" yWindow="-160" windowWidth="16860" windowHeight="12280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16860" windowHeight="12280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="194">
   <si>
     <t>Domaine</t>
   </si>
@@ -576,6 +576,39 @@
   </si>
   <si>
     <t>Cinétique chimique</t>
+  </si>
+  <si>
+    <t>EQD-007</t>
+  </si>
+  <si>
+    <t>Equations différentielles et pendule simple</t>
+  </si>
+  <si>
+    <t>stationnaire</t>
+  </si>
+  <si>
+    <t>STATIO-001</t>
+  </si>
+  <si>
+    <t>Equation polynomiale</t>
+  </si>
+  <si>
+    <t>STATIO-003</t>
+  </si>
+  <si>
+    <t>STATIO-002</t>
+  </si>
+  <si>
+    <t>Nombre d'or</t>
+  </si>
+  <si>
+    <t>Approximation de solution de polynôme</t>
+  </si>
+  <si>
+    <t>STATIO-004</t>
+  </si>
+  <si>
+    <t>Régression et cinétique chimique</t>
   </si>
 </sst>
 </file>
@@ -910,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2074,6 +2107,61 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" t="s">
+        <v>183</v>
+      </c>
+      <c r="C100" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>185</v>
+      </c>
+      <c r="B101" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>185</v>
+      </c>
+      <c r="B102" t="s">
+        <v>189</v>
+      </c>
+      <c r="C102" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>185</v>
+      </c>
+      <c r="B103" t="s">
+        <v>188</v>
+      </c>
+      <c r="C103" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>185</v>
+      </c>
+      <c r="B104" t="s">
+        <v>192</v>
+      </c>
+      <c r="C104" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="198">
   <si>
     <t>Domaine</t>
   </si>
@@ -609,6 +609,18 @@
   </si>
   <si>
     <t>Régression et cinétique chimique</t>
+  </si>
+  <si>
+    <t>INT-004</t>
+  </si>
+  <si>
+    <t>Intégration numérique</t>
+  </si>
+  <si>
+    <t>EQD-008</t>
+  </si>
+  <si>
+    <t>Modèle proie-prédateurs de Lotka-Volterra</t>
   </si>
 </sst>
 </file>
@@ -943,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2074,13 +2086,13 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B97" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C97" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -2088,10 +2100,10 @@
         <v>176</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C98" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -2099,10 +2111,10 @@
         <v>176</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C99" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -2110,32 +2122,32 @@
         <v>176</v>
       </c>
       <c r="B100" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C100" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B101" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C101" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B102" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C102" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2143,10 +2155,10 @@
         <v>185</v>
       </c>
       <c r="B103" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C103" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2154,14 +2166,36 @@
         <v>185</v>
       </c>
       <c r="B104" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C104" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>185</v>
+      </c>
+      <c r="B105" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>185</v>
+      </c>
+      <c r="B106" t="s">
+        <v>192</v>
+      </c>
+      <c r="C106" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16860" windowHeight="12280" tabRatio="500"/>
+    <workbookView xWindow="2820" yWindow="460" windowWidth="16860" windowHeight="12280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="206">
   <si>
     <t>Domaine</t>
   </si>
@@ -621,6 +621,30 @@
   </si>
   <si>
     <t>Modèle proie-prédateurs de Lotka-Volterra</t>
+  </si>
+  <si>
+    <t>systemes</t>
+  </si>
+  <si>
+    <t>SYS-003</t>
+  </si>
+  <si>
+    <t>Résolution de systèmes</t>
+  </si>
+  <si>
+    <t>SYS-004</t>
+  </si>
+  <si>
+    <t>Inversion de matrice</t>
+  </si>
+  <si>
+    <t>SYS-005</t>
+  </si>
+  <si>
+    <t>SYS-006</t>
+  </si>
+  <si>
+    <t>Régression linéaire par la méthode des moindres carrés</t>
   </si>
 </sst>
 </file>
@@ -955,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2196,6 +2220,50 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>198</v>
+      </c>
+      <c r="B107" t="s">
+        <v>199</v>
+      </c>
+      <c r="C107" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>198</v>
+      </c>
+      <c r="B108" t="s">
+        <v>201</v>
+      </c>
+      <c r="C108" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>198</v>
+      </c>
+      <c r="B109" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>198</v>
+      </c>
+      <c r="B110" t="s">
+        <v>204</v>
+      </c>
+      <c r="C110" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="210">
   <si>
     <t>Domaine</t>
   </si>
@@ -645,6 +645,18 @@
   </si>
   <si>
     <t>Régression linéaire par la méthode des moindres carrés</t>
+  </si>
+  <si>
+    <t>periode_pendule</t>
+  </si>
+  <si>
+    <t>Période d'oscillation d'un pendule</t>
+  </si>
+  <si>
+    <t>maitre_chien</t>
+  </si>
+  <si>
+    <t>Modèle de trajectoire d'un chien par rapport à son maître</t>
   </si>
 </sst>
 </file>
@@ -979,16 +991,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
@@ -2121,13 +2133,13 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="C98" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -2135,10 +2147,10 @@
         <v>176</v>
       </c>
       <c r="B99" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C99" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -2146,10 +2158,10 @@
         <v>176</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C100" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -2157,10 +2169,10 @@
         <v>176</v>
       </c>
       <c r="B101" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -2168,32 +2180,32 @@
         <v>176</v>
       </c>
       <c r="B102" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C102" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B103" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C103" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B104" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C104" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -2201,10 +2213,10 @@
         <v>185</v>
       </c>
       <c r="B105" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C105" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -2212,32 +2224,32 @@
         <v>185</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C106" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B107" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C107" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B108" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C108" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -2245,10 +2257,10 @@
         <v>198</v>
       </c>
       <c r="B109" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C109" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -2256,14 +2268,36 @@
         <v>198</v>
       </c>
       <c r="B110" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>198</v>
+      </c>
+      <c r="B111" t="s">
+        <v>203</v>
+      </c>
+      <c r="C111" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>198</v>
+      </c>
+      <c r="B112" t="s">
+        <v>204</v>
+      </c>
+      <c r="C112" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="460" windowWidth="16860" windowHeight="12280" tabRatio="500"/>
+    <workbookView xWindow="34420" yWindow="580" windowWidth="16860" windowHeight="12280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="217">
   <si>
     <t>Domaine</t>
   </si>
@@ -657,6 +657,27 @@
   </si>
   <si>
     <t>Modèle de trajectoire d'un chien par rapport à son maître</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>SQL-004</t>
+  </si>
+  <si>
+    <t>Base de données sur les acteurs</t>
+  </si>
+  <si>
+    <t>pont_de_wheastone</t>
+  </si>
+  <si>
+    <t>Application de physique : pont de wheastone</t>
+  </si>
+  <si>
+    <t>polynome</t>
+  </si>
+  <si>
+    <t>Interpolation</t>
   </si>
 </sst>
 </file>
@@ -991,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2296,8 +2317,41 @@
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>198</v>
+      </c>
+      <c r="B113" t="s">
+        <v>213</v>
+      </c>
+      <c r="C113" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>198</v>
+      </c>
+      <c r="B114" t="s">
+        <v>215</v>
+      </c>
+      <c r="C114" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>210</v>
+      </c>
+      <c r="B115" t="s">
+        <v>211</v>
+      </c>
+      <c r="C115" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="219">
   <si>
     <t>Domaine</t>
   </si>
@@ -678,6 +678,12 @@
   </si>
   <si>
     <t>Interpolation</t>
+  </si>
+  <si>
+    <t>robucar</t>
+  </si>
+  <si>
+    <t>Modélisation et identification du comportement du moteur de la Robucar</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2341,17 +2347,28 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B115" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C115" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>210</v>
+      </c>
+      <c r="B116" t="s">
+        <v>211</v>
+      </c>
+      <c r="C116" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="34420" yWindow="580" windowWidth="16860" windowHeight="12280" tabRatio="500"/>
+    <workbookView xWindow="28660" yWindow="-900" windowWidth="16860" windowHeight="12280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="226">
   <si>
     <t>Domaine</t>
   </si>
@@ -684,6 +684,27 @@
   </si>
   <si>
     <t>Modélisation et identification du comportement du moteur de la Robucar</t>
+  </si>
+  <si>
+    <t>STATIO-005</t>
+  </si>
+  <si>
+    <t>Quelques exemples d'analyse</t>
+  </si>
+  <si>
+    <t>SYS-007</t>
+  </si>
+  <si>
+    <t>Algèbre linéaire</t>
+  </si>
+  <si>
+    <t>consignes_DS7</t>
+  </si>
+  <si>
+    <t>SQL-005</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
   </si>
 </sst>
 </file>
@@ -1018,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1111,13 +1132,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1125,10 +1146,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1136,10 +1157,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1147,24 +1168,21 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1172,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>46</v>
@@ -1186,7 +1204,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1200,18 +1218,21 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1222,7 +1243,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1233,7 +1254,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1244,7 +1265,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1255,7 +1276,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -1266,7 +1287,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1277,7 +1298,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1288,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1299,13 +1320,10 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1313,7 +1331,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -1327,18 +1345,21 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
       </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -1349,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -1360,7 +1381,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -1371,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -1382,7 +1403,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -1393,7 +1414,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -1404,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
@@ -1415,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
@@ -1426,7 +1447,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -1437,13 +1458,10 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1451,18 +1469,21 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
       </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -1473,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -1484,7 +1505,7 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
@@ -1495,7 +1516,7 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
         <v>37</v>
@@ -1506,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -1517,7 +1538,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
         <v>37</v>
@@ -1528,7 +1549,7 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
@@ -1539,13 +1560,10 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1553,10 +1571,13 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+      <c r="E45" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1564,10 +1585,10 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1575,10 +1596,10 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1586,10 +1607,10 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1597,10 +1618,10 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1608,10 +1629,10 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1619,10 +1640,10 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1630,10 +1651,10 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1641,13 +1662,10 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53">
-        <v>502.50299999999999</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1655,10 +1673,13 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>83</v>
+      </c>
+      <c r="E54">
+        <v>502.50299999999999</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1666,24 +1687,24 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
-      </c>
-      <c r="E55" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>71</v>
+      </c>
+      <c r="E56" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1691,10 +1712,10 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1702,10 +1723,10 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1713,21 +1734,21 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1735,10 +1756,10 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1746,10 +1767,10 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1757,10 +1778,10 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1768,10 +1789,10 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1779,10 +1800,10 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1790,10 +1811,10 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C66" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1801,13 +1822,10 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s">
-        <v>147</v>
-      </c>
-      <c r="D67" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1815,10 +1833,10 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D68" t="s">
         <v>148</v>
@@ -1829,10 +1847,10 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D69" t="s">
         <v>148</v>
@@ -1843,10 +1861,10 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D70" t="s">
         <v>148</v>
@@ -1857,10 +1875,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>157</v>
+      </c>
+      <c r="D71" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1868,21 +1889,21 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C73" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1890,10 +1911,10 @@
         <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1901,10 +1922,10 @@
         <v>158</v>
       </c>
       <c r="B75" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C75" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -1912,21 +1933,21 @@
         <v>158</v>
       </c>
       <c r="B76" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C76" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="C77" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1934,10 +1955,10 @@
         <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1945,10 +1966,10 @@
         <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1956,13 +1977,10 @@
         <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C80" t="s">
-        <v>133</v>
-      </c>
-      <c r="D80" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -1970,10 +1988,10 @@
         <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C81" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D81" t="s">
         <v>136</v>
@@ -1981,13 +1999,16 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C82" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="D82" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1995,10 +2016,10 @@
         <v>107</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C83" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2006,21 +2027,21 @@
         <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C84" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C85" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2028,24 +2049,24 @@
         <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C86" t="s">
-        <v>129</v>
-      </c>
-      <c r="D86" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C87" t="s">
-        <v>118</v>
+        <v>129</v>
+      </c>
+      <c r="D87" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2053,10 +2074,10 @@
         <v>116</v>
       </c>
       <c r="B88" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C88" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2064,10 +2085,10 @@
         <v>116</v>
       </c>
       <c r="B89" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C89" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2075,10 +2096,10 @@
         <v>116</v>
       </c>
       <c r="B90" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C90" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2086,21 +2107,21 @@
         <v>116</v>
       </c>
       <c r="B91" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C91" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B92" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C92" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2108,21 +2129,21 @@
         <v>137</v>
       </c>
       <c r="B93" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C93" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="C94" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2130,10 +2151,10 @@
         <v>169</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C95" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2141,10 +2162,10 @@
         <v>169</v>
       </c>
       <c r="B96" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -2152,10 +2173,10 @@
         <v>169</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C97" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -2163,21 +2184,21 @@
         <v>169</v>
       </c>
       <c r="B98" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C98" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B99" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="C99" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -2185,10 +2206,10 @@
         <v>176</v>
       </c>
       <c r="B100" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C100" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -2196,10 +2217,10 @@
         <v>176</v>
       </c>
       <c r="B101" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C101" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -2207,10 +2228,10 @@
         <v>176</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C102" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2218,10 +2239,10 @@
         <v>176</v>
       </c>
       <c r="B103" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C103" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2229,21 +2250,21 @@
         <v>176</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C104" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B105" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="C105" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -2251,10 +2272,10 @@
         <v>185</v>
       </c>
       <c r="B106" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C106" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2262,10 +2283,10 @@
         <v>185</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C107" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -2273,32 +2294,32 @@
         <v>185</v>
       </c>
       <c r="B108" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C108" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B109" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C109" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B110" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="C110" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -2306,10 +2327,10 @@
         <v>198</v>
       </c>
       <c r="B111" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C111" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -2317,10 +2338,10 @@
         <v>198</v>
       </c>
       <c r="B112" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C112" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -2328,10 +2349,10 @@
         <v>198</v>
       </c>
       <c r="B113" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C113" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -2339,10 +2360,10 @@
         <v>198</v>
       </c>
       <c r="B114" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C114" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -2350,25 +2371,69 @@
         <v>198</v>
       </c>
       <c r="B115" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C115" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B116" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C116" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>198</v>
+      </c>
+      <c r="B117" t="s">
+        <v>215</v>
+      </c>
+      <c r="C117" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>198</v>
+      </c>
+      <c r="B118" t="s">
+        <v>217</v>
+      </c>
+      <c r="C118" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>210</v>
+      </c>
+      <c r="B119" t="s">
+        <v>211</v>
+      </c>
+      <c r="C119" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>210</v>
+      </c>
+      <c r="B120" t="s">
+        <v>224</v>
+      </c>
+      <c r="C120" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="228">
   <si>
     <t>Domaine</t>
   </si>
@@ -705,6 +705,12 @@
   </si>
   <si>
     <t>Pokemon</t>
+  </si>
+  <si>
+    <t>projet</t>
+  </si>
+  <si>
+    <t>Projet de fin d'année</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2434,6 +2440,17 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>210</v>
+      </c>
+      <c r="B121" t="s">
+        <v>226</v>
+      </c>
+      <c r="C121" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28660" yWindow="-900" windowWidth="16860" windowHeight="12280" tabRatio="500"/>
+    <workbookView xWindow="8740" yWindow="460" windowWidth="16860" windowHeight="12280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="231">
   <si>
     <t>Domaine</t>
   </si>
@@ -711,6 +711,15 @@
   </si>
   <si>
     <t>Projet de fin d'année</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>Base de données de gestion d'un hotel</t>
+  </si>
+  <si>
+    <t>consignes_DS8</t>
   </si>
 </sst>
 </file>
@@ -1045,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1149,13 +1158,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1163,10 +1172,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1174,10 +1183,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1185,24 +1194,21 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1210,10 +1216,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>46</v>
@@ -1224,7 +1230,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1238,18 +1244,21 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1260,7 +1269,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1271,7 +1280,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1282,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -1293,7 +1302,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1304,7 +1313,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1315,7 +1324,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1326,7 +1335,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1337,13 +1346,10 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1351,7 +1357,7 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -1365,18 +1371,21 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
       </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -1387,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -1398,7 +1407,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -1409,7 +1418,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -1420,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -1431,7 +1440,7 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
@@ -1442,7 +1451,7 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
@@ -1453,7 +1462,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -1464,7 +1473,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>23</v>
@@ -1475,13 +1484,10 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1489,18 +1495,21 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
       </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -1511,7 +1520,7 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
@@ -1522,7 +1531,7 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
         <v>37</v>
@@ -1533,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -1544,7 +1553,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
         <v>37</v>
@@ -1555,7 +1564,7 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
@@ -1566,7 +1575,7 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
         <v>37</v>
@@ -1577,13 +1586,10 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1591,10 +1597,13 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+      <c r="E46" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1602,10 +1611,10 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1613,10 +1622,10 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1624,10 +1633,10 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1635,10 +1644,10 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1646,10 +1655,10 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1657,10 +1666,10 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1668,10 +1677,10 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1679,13 +1688,10 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
-      </c>
-      <c r="E54">
-        <v>502.50299999999999</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1693,10 +1699,13 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>83</v>
+      </c>
+      <c r="E55">
+        <v>502.50299999999999</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1704,24 +1713,24 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>71</v>
+      </c>
+      <c r="E57" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1729,10 +1738,10 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1740,10 +1749,10 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1751,21 +1760,21 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1773,10 +1782,10 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1784,10 +1793,10 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1795,10 +1804,10 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1806,10 +1815,10 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1817,10 +1826,10 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1828,10 +1837,10 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1839,13 +1848,10 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
-      </c>
-      <c r="D68" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1853,10 +1859,10 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C69" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D69" t="s">
         <v>148</v>
@@ -1867,10 +1873,10 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D70" t="s">
         <v>148</v>
@@ -1881,10 +1887,10 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D71" t="s">
         <v>148</v>
@@ -1895,10 +1901,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="C72" t="s">
-        <v>113</v>
+        <v>157</v>
+      </c>
+      <c r="D72" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1906,21 +1915,21 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C74" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1928,10 +1937,10 @@
         <v>158</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -1939,10 +1948,10 @@
         <v>158</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1950,21 +1959,21 @@
         <v>158</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C77" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1972,10 +1981,10 @@
         <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1983,10 +1992,10 @@
         <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -1994,13 +2003,10 @@
         <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C81" t="s">
-        <v>133</v>
-      </c>
-      <c r="D81" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2008,10 +2014,10 @@
         <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D82" t="s">
         <v>136</v>
@@ -2019,13 +2025,16 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C83" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="D83" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2033,10 +2042,10 @@
         <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C84" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2044,21 +2053,21 @@
         <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C85" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B86" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C86" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2066,24 +2075,24 @@
         <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C87" t="s">
-        <v>129</v>
-      </c>
-      <c r="D87" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C88" t="s">
-        <v>118</v>
+        <v>129</v>
+      </c>
+      <c r="D88" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2091,10 +2100,10 @@
         <v>116</v>
       </c>
       <c r="B89" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2102,10 +2111,10 @@
         <v>116</v>
       </c>
       <c r="B90" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C90" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2113,10 +2122,10 @@
         <v>116</v>
       </c>
       <c r="B91" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C91" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2124,21 +2133,21 @@
         <v>116</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C92" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B93" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C93" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2146,21 +2155,21 @@
         <v>137</v>
       </c>
       <c r="B94" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C94" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="B95" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="C95" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2168,10 +2177,10 @@
         <v>169</v>
       </c>
       <c r="B96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C96" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -2179,10 +2188,10 @@
         <v>169</v>
       </c>
       <c r="B97" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -2190,10 +2199,10 @@
         <v>169</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -2201,21 +2210,21 @@
         <v>169</v>
       </c>
       <c r="B99" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C99" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B100" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="C100" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -2223,10 +2232,10 @@
         <v>176</v>
       </c>
       <c r="B101" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C101" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -2234,10 +2243,10 @@
         <v>176</v>
       </c>
       <c r="B102" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C102" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2245,10 +2254,10 @@
         <v>176</v>
       </c>
       <c r="B103" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C103" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2256,10 +2265,10 @@
         <v>176</v>
       </c>
       <c r="B104" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C104" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -2267,21 +2276,21 @@
         <v>176</v>
       </c>
       <c r="B105" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C105" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B106" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="C106" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2289,10 +2298,10 @@
         <v>185</v>
       </c>
       <c r="B107" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C107" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -2300,10 +2309,10 @@
         <v>185</v>
       </c>
       <c r="B108" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C108" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -2311,10 +2320,10 @@
         <v>185</v>
       </c>
       <c r="B109" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C109" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -2322,21 +2331,21 @@
         <v>185</v>
       </c>
       <c r="B110" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="C110" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="C111" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -2344,10 +2353,10 @@
         <v>198</v>
       </c>
       <c r="B112" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C112" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -2355,10 +2364,10 @@
         <v>198</v>
       </c>
       <c r="B113" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C113" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -2366,7 +2375,7 @@
         <v>198</v>
       </c>
       <c r="B114" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C114" t="s">
         <v>205</v>
@@ -2377,10 +2386,10 @@
         <v>198</v>
       </c>
       <c r="B115" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C115" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -2388,10 +2397,10 @@
         <v>198</v>
       </c>
       <c r="B116" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C116" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -2399,10 +2408,10 @@
         <v>198</v>
       </c>
       <c r="B117" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C117" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -2410,21 +2419,21 @@
         <v>198</v>
       </c>
       <c r="B118" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C118" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B119" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C119" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -2432,10 +2441,10 @@
         <v>210</v>
       </c>
       <c r="B120" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C120" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -2443,14 +2452,36 @@
         <v>210</v>
       </c>
       <c r="B121" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C121" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>210</v>
+      </c>
+      <c r="B122" t="s">
+        <v>226</v>
+      </c>
+      <c r="C122" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>210</v>
+      </c>
+      <c r="B123" t="s">
+        <v>228</v>
+      </c>
+      <c r="C123" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="238">
   <si>
     <t>Domaine</t>
   </si>
@@ -720,6 +720,27 @@
   </si>
   <si>
     <t>consignes_DS8</t>
+  </si>
+  <si>
+    <t>ALG-011</t>
+  </si>
+  <si>
+    <t>Une suite définie par récurrence simple</t>
+  </si>
+  <si>
+    <t>TAB-028</t>
+  </si>
+  <si>
+    <t>Altimètre</t>
+  </si>
+  <si>
+    <t>fiches_reponses_exemple_DS2</t>
+  </si>
+  <si>
+    <t>Exemple de réponses</t>
+  </si>
+  <si>
+    <t>solution_ds</t>
   </si>
 </sst>
 </file>
@@ -1054,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1169,13 +1190,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1183,10 +1204,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1194,10 +1215,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1205,24 +1226,21 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1230,10 +1248,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
         <v>46</v>
@@ -1244,7 +1262,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1258,18 +1276,21 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1280,7 +1301,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1291,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -1302,7 +1323,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1313,7 +1334,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1324,7 +1345,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1335,7 +1356,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1346,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1357,13 +1378,10 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1371,7 +1389,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -1385,18 +1403,21 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
       </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -1407,7 +1428,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -1418,7 +1439,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -1429,7 +1450,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -1440,7 +1461,7 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
@@ -1451,7 +1472,7 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
@@ -1462,7 +1483,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -1473,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
         <v>23</v>
@@ -1484,7 +1505,7 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
         <v>23</v>
@@ -1495,13 +1516,10 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1509,18 +1527,21 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
       </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
@@ -1531,7 +1552,7 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>37</v>
@@ -1542,7 +1563,7 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -1553,7 +1574,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
         <v>37</v>
@@ -1564,7 +1585,7 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
@@ -1575,7 +1596,7 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>37</v>
@@ -1586,7 +1607,7 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>37</v>
@@ -1597,13 +1618,10 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1611,10 +1629,13 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+      <c r="E47" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1622,10 +1643,10 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1633,10 +1654,10 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1644,10 +1665,10 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1655,10 +1676,10 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1666,10 +1687,10 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1677,10 +1698,10 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1688,10 +1709,10 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1699,13 +1720,10 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
-      </c>
-      <c r="E55">
-        <v>502.50299999999999</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1713,10 +1731,13 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>83</v>
+      </c>
+      <c r="E56">
+        <v>502.50299999999999</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1724,24 +1745,24 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
-      </c>
-      <c r="E57" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>71</v>
+      </c>
+      <c r="E58" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1749,10 +1770,10 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1760,10 +1781,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1771,21 +1792,21 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1793,10 +1814,10 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c r="C63" t="s">
-        <v>89</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1804,10 +1825,10 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1815,10 +1836,10 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1826,10 +1847,10 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C66" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1837,10 +1858,10 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1848,10 +1869,10 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1859,13 +1880,10 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
-      </c>
-      <c r="D69" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1873,13 +1891,10 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>153</v>
-      </c>
-      <c r="D70" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1887,10 +1902,10 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C71" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D71" t="s">
         <v>148</v>
@@ -1901,10 +1916,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D72" t="s">
         <v>148</v>
@@ -1915,10 +1930,13 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="C73" t="s">
-        <v>113</v>
+        <v>155</v>
+      </c>
+      <c r="D73" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1926,32 +1944,35 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C74" t="s">
-        <v>167</v>
+        <v>157</v>
+      </c>
+      <c r="D74" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C76" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1959,10 +1980,10 @@
         <v>158</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C77" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1970,32 +1991,32 @@
         <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C78" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="C79" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="C80" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2003,10 +2024,10 @@
         <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="C81" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2014,13 +2035,10 @@
         <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="C82" t="s">
-        <v>133</v>
-      </c>
-      <c r="D82" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2028,104 +2046,107 @@
         <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C83" t="s">
-        <v>135</v>
-      </c>
-      <c r="D83" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="C84" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C85" t="s">
-        <v>109</v>
+        <v>133</v>
+      </c>
+      <c r="D85" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C86" t="s">
-        <v>111</v>
+        <v>135</v>
+      </c>
+      <c r="D86" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B87" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C87" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B88" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C88" t="s">
-        <v>129</v>
-      </c>
-      <c r="D88" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C89" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C91" t="s">
-        <v>120</v>
+        <v>129</v>
+      </c>
+      <c r="D91" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2133,10 +2154,10 @@
         <v>116</v>
       </c>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C92" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2144,65 +2165,65 @@
         <v>116</v>
       </c>
       <c r="B93" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C93" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C94" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B95" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C95" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="B96" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="C96" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="B97" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="C97" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="B98" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="C98" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -2210,10 +2231,10 @@
         <v>169</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -2221,43 +2242,43 @@
         <v>169</v>
       </c>
       <c r="B100" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="C100" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B101" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C101" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B102" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C102" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B103" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="C103" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2265,10 +2286,10 @@
         <v>176</v>
       </c>
       <c r="B104" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C104" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -2276,10 +2297,10 @@
         <v>176</v>
       </c>
       <c r="B105" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="C105" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -2287,43 +2308,43 @@
         <v>176</v>
       </c>
       <c r="B106" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="C106" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B107" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C107" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B108" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C108" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B109" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C109" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -2331,10 +2352,10 @@
         <v>185</v>
       </c>
       <c r="B110" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C110" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -2342,43 +2363,43 @@
         <v>185</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="C111" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B112" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C112" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B113" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C113" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B114" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C114" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -2386,10 +2407,10 @@
         <v>198</v>
       </c>
       <c r="B115" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C115" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -2397,10 +2418,10 @@
         <v>198</v>
       </c>
       <c r="B116" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C116" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -2408,10 +2429,10 @@
         <v>198</v>
       </c>
       <c r="B117" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C117" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -2419,10 +2440,10 @@
         <v>198</v>
       </c>
       <c r="B118" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C118" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -2430,43 +2451,43 @@
         <v>198</v>
       </c>
       <c r="B119" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C119" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B120" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C120" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B121" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C121" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B122" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C122" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -2474,14 +2495,47 @@
         <v>210</v>
       </c>
       <c r="B123" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="C123" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>210</v>
+      </c>
+      <c r="B124" t="s">
+        <v>224</v>
+      </c>
+      <c r="C124" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>210</v>
+      </c>
+      <c r="B125" t="s">
+        <v>226</v>
+      </c>
+      <c r="C125" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>210</v>
+      </c>
+      <c r="B126" t="s">
+        <v>228</v>
+      </c>
+      <c r="C126" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="240">
   <si>
     <t>Domaine</t>
   </si>
@@ -741,6 +741,12 @@
   </si>
   <si>
     <t>solution_ds</t>
+  </si>
+  <si>
+    <t>accelerometre</t>
+  </si>
+  <si>
+    <t>Mesure d'une position par un accéléromètre</t>
   </si>
 </sst>
 </file>
@@ -1075,15 +1081,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
@@ -2275,21 +2281,21 @@
         <v>169</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="C103" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B104" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="C104" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -2297,10 +2303,10 @@
         <v>176</v>
       </c>
       <c r="B105" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C105" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -2308,10 +2314,10 @@
         <v>176</v>
       </c>
       <c r="B106" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C106" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2319,10 +2325,10 @@
         <v>176</v>
       </c>
       <c r="B107" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C107" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -2330,10 +2336,10 @@
         <v>176</v>
       </c>
       <c r="B108" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C108" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -2341,21 +2347,21 @@
         <v>176</v>
       </c>
       <c r="B109" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C109" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B110" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="C110" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -2363,10 +2369,10 @@
         <v>185</v>
       </c>
       <c r="B111" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C111" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -2374,10 +2380,10 @@
         <v>185</v>
       </c>
       <c r="B112" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C112" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -2385,10 +2391,10 @@
         <v>185</v>
       </c>
       <c r="B113" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C113" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -2396,21 +2402,21 @@
         <v>185</v>
       </c>
       <c r="B114" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="C114" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B115" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="C115" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -2418,10 +2424,10 @@
         <v>198</v>
       </c>
       <c r="B116" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C116" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -2429,10 +2435,10 @@
         <v>198</v>
       </c>
       <c r="B117" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C117" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -2440,7 +2446,7 @@
         <v>198</v>
       </c>
       <c r="B118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C118" t="s">
         <v>205</v>
@@ -2451,10 +2457,10 @@
         <v>198</v>
       </c>
       <c r="B119" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C119" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -2462,10 +2468,10 @@
         <v>198</v>
       </c>
       <c r="B120" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C120" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -2473,10 +2479,10 @@
         <v>198</v>
       </c>
       <c r="B121" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C121" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -2484,21 +2490,21 @@
         <v>198</v>
       </c>
       <c r="B122" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C122" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B123" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C123" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -2506,10 +2512,10 @@
         <v>210</v>
       </c>
       <c r="B124" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C124" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -2517,10 +2523,10 @@
         <v>210</v>
       </c>
       <c r="B125" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C125" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -2528,14 +2534,25 @@
         <v>210</v>
       </c>
       <c r="B126" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C126" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>210</v>
+      </c>
+      <c r="B127" t="s">
+        <v>228</v>
+      </c>
+      <c r="C127" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>8</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="247">
   <si>
     <t>Domaine</t>
   </si>
@@ -747,6 +747,27 @@
   </si>
   <si>
     <t>Mesure d'une position par un accéléromètre</t>
+  </si>
+  <si>
+    <t>STATIO-006</t>
+  </si>
+  <si>
+    <t>Méthodes numériques</t>
+  </si>
+  <si>
+    <t>FIC-013</t>
+  </si>
+  <si>
+    <t>Lecture d'un fichier donnant les décimales de pi</t>
+  </si>
+  <si>
+    <t>problemes</t>
+  </si>
+  <si>
+    <t>puissance vélo</t>
+  </si>
+  <si>
+    <t>Analyse de la puissance d'un cycliste à partir d'un relevé GPS</t>
   </si>
 </sst>
 </file>
@@ -1081,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2212,13 +2233,13 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B97" t="s">
-        <v>138</v>
+        <v>242</v>
       </c>
       <c r="C97" t="s">
-        <v>139</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -2226,21 +2247,21 @@
         <v>137</v>
       </c>
       <c r="B98" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C98" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="B99" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="C99" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -2248,10 +2269,10 @@
         <v>169</v>
       </c>
       <c r="B100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C100" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -2259,10 +2280,10 @@
         <v>169</v>
       </c>
       <c r="B101" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C101" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -2270,10 +2291,10 @@
         <v>169</v>
       </c>
       <c r="B102" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C102" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2281,10 +2302,10 @@
         <v>169</v>
       </c>
       <c r="B103" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="C103" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2292,21 +2313,21 @@
         <v>169</v>
       </c>
       <c r="B104" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="C104" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B105" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="C105" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -2314,10 +2335,10 @@
         <v>176</v>
       </c>
       <c r="B106" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C106" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2325,10 +2346,10 @@
         <v>176</v>
       </c>
       <c r="B107" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C107" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -2336,10 +2357,10 @@
         <v>176</v>
       </c>
       <c r="B108" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C108" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -2347,10 +2368,10 @@
         <v>176</v>
       </c>
       <c r="B109" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C109" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -2358,21 +2379,21 @@
         <v>176</v>
       </c>
       <c r="B110" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C110" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B111" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="C111" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -2380,10 +2401,10 @@
         <v>185</v>
       </c>
       <c r="B112" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C112" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -2391,10 +2412,10 @@
         <v>185</v>
       </c>
       <c r="B113" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C113" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -2402,10 +2423,10 @@
         <v>185</v>
       </c>
       <c r="B114" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C114" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -2413,32 +2434,32 @@
         <v>185</v>
       </c>
       <c r="B115" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="C115" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B116" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="C116" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B117" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="C117" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -2446,10 +2467,10 @@
         <v>198</v>
       </c>
       <c r="B118" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C118" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -2457,10 +2478,10 @@
         <v>198</v>
       </c>
       <c r="B119" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C119" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -2468,10 +2489,10 @@
         <v>198</v>
       </c>
       <c r="B120" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C120" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -2479,10 +2500,10 @@
         <v>198</v>
       </c>
       <c r="B121" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C121" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -2490,10 +2511,10 @@
         <v>198</v>
       </c>
       <c r="B122" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C122" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -2501,32 +2522,32 @@
         <v>198</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C123" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B124" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C124" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B125" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C125" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -2534,10 +2555,10 @@
         <v>210</v>
       </c>
       <c r="B126" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C126" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -2545,14 +2566,47 @@
         <v>210</v>
       </c>
       <c r="B127" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C127" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>210</v>
+      </c>
+      <c r="B128" t="s">
+        <v>226</v>
+      </c>
+      <c r="C128" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>210</v>
+      </c>
+      <c r="B129" t="s">
+        <v>228</v>
+      </c>
+      <c r="C129" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>244</v>
+      </c>
+      <c r="B130" t="s">
+        <v>245</v>
+      </c>
+      <c r="C130" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>8</v>
       </c>
     </row>
